--- a/concepts/vulnerable-groups/input.xlsx
+++ b/concepts/vulnerable-groups/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -69,42 +69,33 @@
     <t>Vulnerable groups</t>
   </si>
   <si>
-    <t>most vulnerable</t>
+    <t>vulnerable groups</t>
   </si>
   <si>
     <t>LOWER</t>
   </si>
   <si>
-    <t>most</t>
-  </si>
-  <si>
     <t>vulnerable</t>
   </si>
   <si>
-    <t>more vulnerable</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>vulnerable groups</t>
-  </si>
-  <si>
     <t>LEMMA</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
     <t>situation</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>Indigenous people</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>Impacted people</t>
   </si>
   <si>
@@ -195,6 +183,18 @@
     <t>child</t>
   </si>
   <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>future generations</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
     <t>Migrants</t>
   </si>
   <si>
@@ -207,16 +207,13 @@
     <t>immigrant</t>
   </si>
   <si>
-    <t>Women</t>
+    <t>Women and girls</t>
   </si>
   <si>
     <t>women</t>
   </si>
   <si>
     <t>woman</t>
-  </si>
-  <si>
-    <t>Girls</t>
   </si>
   <si>
     <t>girls</t>
@@ -338,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -357,13 +354,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -432,7 +433,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -443,17 +444,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -842,10 +843,10 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -875,27 +876,27 @@
       <c r="AJ3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -931,30 +932,38 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>26</v>
+      <c r="I5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -981,38 +990,30 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="13" t="s">
-        <v>19</v>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -1035,25 +1036,25 @@
     <row r="7">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1085,25 +1086,25 @@
     <row r="8">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1135,17 +1136,17 @@
     <row r="9">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1181,24 +1182,24 @@
     <row r="10">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>35</v>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="11"/>
@@ -1235,21 +1236,21 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1285,42 +1286,30 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
@@ -1347,42 +1336,30 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -1409,30 +1386,42 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="Q14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -1459,30 +1448,42 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="Q15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -1505,34 +1506,46 @@
     <row r="16">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="Q16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
@@ -1555,25 +1568,25 @@
     <row r="17">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -1605,25 +1618,25 @@
     <row r="18">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -1655,25 +1668,25 @@
     <row r="19">
       <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1705,34 +1718,30 @@
     <row r="20">
       <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>27</v>
+      <c r="F20" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -1759,25 +1768,25 @@
     <row r="21">
       <c r="A21" s="12"/>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1809,22 +1818,26 @@
     <row r="22">
       <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -1855,22 +1868,26 @@
     <row r="23">
       <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -1901,26 +1918,34 @@
     <row r="24">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -1947,22 +1972,26 @@
     <row r="25">
       <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -1993,17 +2022,17 @@
     <row r="26">
       <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2036,6 +2065,286 @@
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
     </row>
+    <row r="27">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -2052,7 +2361,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E26 G3:G26 I3:I26 K3:K26 M3:M26 O3:O26 Q3:Q26 S3:S26 U3:U26 W3:W26 Y3:Y26 AA3:AA26 AC3:AC26 AE3:AE26 AG3:AG26 AI3:AI26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E32 G3:G32 I3:I32 K3:K32 M3:M32 O3:O32 Q3:Q32 S3:S32 U3:U32 W3:W32 Y3:Y32 AA3:AA32 AC3:AC32 AE3:AE32 AG3:AG32 AI3:AI32">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -2072,22 +2381,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2097,122 +2406,122 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2547,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/concepts/vulnerable-groups/input.xlsx
+++ b/concepts/vulnerable-groups/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="127">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -84,6 +84,9 @@
     <t>people</t>
   </si>
   <si>
+    <t>peoples</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
@@ -96,6 +99,90 @@
     <t>community</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>marginalized people</t>
+  </si>
+  <si>
+    <t>marginalized</t>
+  </si>
+  <si>
+    <t>ethnic groups</t>
+  </si>
+  <si>
+    <t>ethnic</t>
+  </si>
+  <si>
+    <t>minority groups</t>
+  </si>
+  <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>underrepresented people</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>ORTH</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>represented</t>
+  </si>
+  <si>
+    <t>underrepresented</t>
+  </si>
+  <si>
+    <t>disadvantaged people</t>
+  </si>
+  <si>
+    <t>disadvantaged</t>
+  </si>
+  <si>
+    <t>disproportionate impact</t>
+  </si>
+  <si>
+    <t>disproportionate</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>disproportionate vulnerability</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>impacted people</t>
+  </si>
+  <si>
+    <t>impacted</t>
+  </si>
+  <si>
+    <t>low-income people</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
     <t>Indigenous people</t>
   </si>
   <si>
@@ -108,40 +195,7 @@
     <t>aboriginal</t>
   </si>
   <si>
-    <t>marginalized people</t>
-  </si>
-  <si>
-    <t>marginalized</t>
-  </si>
-  <si>
-    <t>underrepresented people</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>ORTH</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>represented</t>
-  </si>
-  <si>
-    <t>disadvantaged people</t>
-  </si>
-  <si>
-    <t>disadvantaged</t>
-  </si>
-  <si>
-    <t>Local communities</t>
+    <t>Local and rural communities</t>
   </si>
   <si>
     <t>local communities</t>
@@ -150,13 +204,16 @@
     <t>local</t>
   </si>
   <si>
-    <t>Impacted people</t>
-  </si>
-  <si>
-    <t>impacted people</t>
-  </si>
-  <si>
-    <t>impacted</t>
+    <t>rural communities</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>remote communities</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
   <si>
     <t>People with disabilities</t>
@@ -165,13 +222,34 @@
     <t>people with disabilities</t>
   </si>
   <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWDS </t>
+  </si>
+  <si>
+    <t>IS_UPPER</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>People with chronic diseases</t>
+  </si>
+  <si>
+    <t>people with chronic diseases</t>
+  </si>
+  <si>
     <t>with</t>
   </si>
   <si>
-    <t>disabilities</t>
-  </si>
-  <si>
-    <t>disabled</t>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>disease</t>
   </si>
   <si>
     <t>Children</t>
@@ -195,6 +273,15 @@
     <t>generation</t>
   </si>
   <si>
+    <t>young people</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>youth</t>
+  </si>
+  <si>
     <t>Migrants</t>
   </si>
   <si>
@@ -220,6 +307,18 @@
   </si>
   <si>
     <t>girl</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>The elderly</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <r>
@@ -275,9 +374,6 @@
   </si>
   <si>
     <t>IS_LOWER</t>
-  </si>
-  <si>
-    <t>IS_UPPER</t>
   </si>
   <si>
     <t>IS_TITLE</t>
@@ -407,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -444,12 +540,21 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -892,10 +997,10 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="11"/>
@@ -926,7 +1031,7 @@
       <c r="AJ4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
@@ -937,33 +1042,25 @@
       <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -984,7 +1081,7 @@
       <c r="AJ5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
@@ -995,25 +1092,33 @@
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="Q6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -1034,27 +1139,27 @@
       <c r="AJ6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
+      <c r="J7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1084,27 +1189,27 @@
       <c r="AJ7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>22</v>
+      <c r="I8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1134,24 +1239,28 @@
       <c r="AJ8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
+      <c r="F9" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1180,27 +1289,27 @@
       <c r="AJ9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>29</v>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>26</v>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1230,19 +1339,19 @@
       <c r="AJ10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1250,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1280,32 +1389,32 @@
       <c r="AJ11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>22</v>
+      <c r="I12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1330,27 +1439,27 @@
       <c r="AJ12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>26</v>
+      <c r="J13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1380,48 +1489,36 @@
       <c r="AJ13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>34</v>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="I14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -1442,48 +1539,36 @@
       <c r="AJ14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>34</v>
+      <c r="F15" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="I15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -1504,48 +1589,36 @@
       <c r="AJ15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
@@ -1566,32 +1639,32 @@
       <c r="AJ16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>41</v>
+      <c r="F17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
+      <c r="J17" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -1616,36 +1689,48 @@
       <c r="AJ17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>41</v>
+      <c r="F18" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="Q18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
@@ -1666,32 +1751,32 @@
       <c r="AJ18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>41</v>
+      <c r="F19" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -1716,36 +1801,48 @@
       <c r="AJ19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>44</v>
+      <c r="F20" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="Q20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
@@ -1766,36 +1863,36 @@
       <c r="AJ20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
@@ -1816,36 +1913,48 @@
       <c r="AJ21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>47</v>
+      <c r="F22" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="Q22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
@@ -1866,36 +1975,36 @@
       <c r="AJ22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>47</v>
+      <c r="F23" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="M23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
@@ -1916,40 +2025,48 @@
       <c r="AJ23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>22</v>
+      <c r="F24" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="M24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>51</v>
+      <c r="N24" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="Q24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
@@ -1970,32 +2087,32 @@
       <c r="AJ24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>52</v>
+      <c r="F25" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -2020,32 +2137,48 @@
       <c r="AJ25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
+      <c r="Q26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
@@ -2066,19 +2199,19 @@
       <c r="AJ26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2086,8 +2219,12 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -2112,36 +2249,48 @@
       <c r="AJ27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9" t="s">
-        <v>53</v>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="9" t="s">
-        <v>57</v>
+      <c r="D28" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>58</v>
+      <c r="F28" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
+      <c r="Q28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
@@ -2162,19 +2311,19 @@
       <c r="AJ28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>62</v>
+      <c r="D29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2182,8 +2331,12 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="M29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -2208,24 +2361,28 @@
       <c r="AJ29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -2254,24 +2411,28 @@
       <c r="AJ30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -2300,24 +2461,28 @@
       <c r="AJ31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -2345,6 +2510,2510 @@
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
     </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13"/>
+      <c r="B39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13"/>
+      <c r="B40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+      <c r="B44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="13"/>
+      <c r="B45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13"/>
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="13"/>
+      <c r="B47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13"/>
+      <c r="B49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13"/>
+      <c r="B50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="13"/>
+      <c r="B51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13"/>
+      <c r="B52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="13"/>
+      <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="13"/>
+      <c r="B54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+      <c r="B55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13"/>
+      <c r="B56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13"/>
+      <c r="B57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13"/>
+      <c r="B58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13"/>
+      <c r="B59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="13"/>
+      <c r="B60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="13"/>
+      <c r="B61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13"/>
+      <c r="B62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13"/>
+      <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="13"/>
+      <c r="B64" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13"/>
+      <c r="B65" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="13"/>
+      <c r="B66" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="13"/>
+      <c r="B67" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="13"/>
+      <c r="B68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="13"/>
+      <c r="B69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="13"/>
+      <c r="B70" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11"/>
+      <c r="AD70" s="11"/>
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="13"/>
+      <c r="B71" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="13"/>
+      <c r="B72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="13"/>
+      <c r="B73" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="13"/>
+      <c r="B74" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="13"/>
+      <c r="B75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="13"/>
+      <c r="B76" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="13"/>
+      <c r="B77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11"/>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="13"/>
+      <c r="B78" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="11"/>
+      <c r="AE78" s="11"/>
+      <c r="AF78" s="11"/>
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="13"/>
+      <c r="B79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="13"/>
+      <c r="B80" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13"/>
+      <c r="B81" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -2361,7 +5030,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E32 G3:G32 I3:I32 K3:K32 M3:M32 O3:O32 Q3:Q32 S3:S32 U3:U32 W3:W32 Y3:Y32 AA3:AA32 AC3:AC32 AE3:AE32 AG3:AG32 AI3:AI32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y3:Y27 AA3:AA27 AC3:AC27 AE3:AE27 AG3:AG27 AI3:AI27 Y28:AI29 Q3:Q48 E3:E81 G3:G81 I3:I81 K3:K81 M3:M81 O3:O81 Q50:Q81 S3:S81 U3:U81 W3:W81 Y30:Y81 AA30:AA81 AC30:AC81 AE30:AE81 AG30:AG81 AI30:AI81">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -2380,23 +5049,23 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>69</v>
+      <c r="A1" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -2406,97 +5075,97 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -2506,22 +5175,22 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2546,8 +5215,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>94</v>
+      <c r="A1" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
